--- a/DataTables/Config/DefaultConfig.xlsx
+++ b/DataTables/Config/DefaultConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\Unity\ZH_GameSpace\Self\DavlmiLauncher\DataTables\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEC695B-A886-4D7B-82D0-73AD47CB9980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91E9038-0CE7-4375-8E71-805DA00AC009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,33 +20,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>默认配置</t>
-  </si>
-  <si>
-    <t>配置项</t>
-  </si>
-  <si>
-    <t>策划备注</t>
+    <t>Game.Id</t>
+  </si>
+  <si>
+    <t>Scene.Menu</t>
+  </si>
+  <si>
+    <t>Scene.Main</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>配置值</t>
-  </si>
-  <si>
-    <t>Game.Id</t>
-  </si>
-  <si>
-    <t>Scene.Menu</t>
-  </si>
-  <si>
-    <t>Scene.Main</t>
-  </si>
-  <si>
-    <t>DvalmiLauncher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -54,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +90,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -100,11 +126,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -411,15 +440,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="38.75" customWidth="1"/>
     <col min="4" max="4" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -427,8 +457,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -436,37 +466,62 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
